--- a/_Excel/ItemTablev1.0.8.xlsx
+++ b/_Excel/ItemTablev1.0.8.xlsx
@@ -4979,9 +4979,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AC47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E7:E8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <pane ySplit="13" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="34">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O14" s="34">
         <v>0</v>
@@ -5659,7 +5659,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="34">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="O15" s="34">
         <v>0</v>
@@ -5809,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="34">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O17" s="34">
         <v>0</v>
@@ -5881,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="34">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="O18" s="34">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="34">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="34">
         <v>0</v>
@@ -6101,7 +6101,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="34">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="O21" s="34">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="34">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O23" s="34">
         <v>0</v>
@@ -6325,7 +6325,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="34">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="O24" s="34">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="34">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O26" s="34">
         <v>0</v>
@@ -6545,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="34">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="O27" s="34">
         <v>0</v>
@@ -6692,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="N29" s="34">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O29" s="34">
         <v>0</v>
@@ -6765,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="N30" s="34">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="O30" s="34">
         <v>0</v>
@@ -6916,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="34">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" s="34">
         <v>0</v>
@@ -6989,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="34">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O33" s="34">
         <v>0</v>
@@ -7062,7 +7062,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="34">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O34" s="34">
         <v>0</v>
@@ -7135,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="34">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O35" s="34">
         <v>0</v>
@@ -7208,7 +7208,7 @@
         <v>0</v>
       </c>
       <c r="N36" s="34">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O36" s="34">
         <v>0</v>
@@ -7281,7 +7281,7 @@
         <v>0</v>
       </c>
       <c r="N37" s="34">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O37" s="34">
         <v>0</v>
@@ -7457,7 +7457,7 @@
         <v>171</v>
       </c>
       <c r="N40" s="16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O40" s="13">
         <v>0</v>
@@ -7525,7 +7525,7 @@
         <v>171</v>
       </c>
       <c r="N41" s="16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O41" s="35">
         <v>1</v>
@@ -7872,8 +7872,8 @@
   </sheetData>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/_Excel/ItemTablev1.0.8.xlsx
+++ b/_Excel/ItemTablev1.0.8.xlsx
@@ -2626,7 +2626,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="233">
   <si>
     <t>Sword6_R</t>
   </si>
@@ -2643,33 +2643,21 @@
     <t>label(etcpart)</t>
   </si>
   <si>
-    <t>동 의상 랜덤박스(4101)</t>
-  </si>
-  <si>
     <t>label(usepart)</t>
   </si>
   <si>
     <t>돌 조각 랜덤박스(4000)</t>
   </si>
   <si>
-    <t>돌 의상 랜덤박스(4100)</t>
-  </si>
-  <si>
     <t>fameofdealok</t>
   </si>
   <si>
-    <t>금 의상 랜덤박스(4103)</t>
-  </si>
-  <si>
     <t>label(wearpart)</t>
   </si>
   <si>
     <t>fameoffreshfail</t>
   </si>
   <si>
-    <t>은 의상 랜덤박스(4102)</t>
-  </si>
-  <si>
     <t>label(coinpart)</t>
   </si>
   <si>
@@ -3000,9 +2988,6 @@
     <t>presentablecount</t>
   </si>
   <si>
-    <t>티타늄 의상 랜덤박스(4104)</t>
-  </si>
-  <si>
     <t>도움말을 여기에 넣어주세요3.</t>
   </si>
   <si>
@@ -3133,9 +3118,6 @@
   </si>
   <si>
     <t>moncode</t>
-  </si>
-  <si>
-    <t>없음(-1)</t>
   </si>
   <si>
     <t>없음(0)</t>
@@ -4499,13 +4481,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -4521,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -4529,7 +4511,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -4537,7 +4519,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -4545,7 +4527,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4600,43 +4582,43 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="22" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" s="24" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>2</v>
@@ -4664,11 +4646,11 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="28" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -4683,31 +4665,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E5" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="29" t="s">
-        <v>100</v>
-      </c>
       <c r="G5" s="29" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
@@ -4718,25 +4700,25 @@
         <v>100</v>
       </c>
       <c r="D6" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="30" t="s">
         <v>53</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
@@ -4747,25 +4729,25 @@
         <v>101</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
@@ -4776,25 +4758,25 @@
         <v>102</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
@@ -4805,25 +4787,25 @@
         <v>103</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H9" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="J9" s="30" t="s">
         <v>31</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
@@ -4834,30 +4816,30 @@
         <v>104</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:27" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="S11" s="25"/>
       <c r="T11" s="25"/>
@@ -4871,13 +4853,13 @@
     </row>
     <row r="12" spans="1:27" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
@@ -4895,7 +4877,7 @@
         <v>80400</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
@@ -4913,7 +4895,7 @@
         <v>80401</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J14" s="25"/>
       <c r="K14" s="25"/>
@@ -4979,9 +4961,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AC47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane ySplit="13" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -5019,19 +5001,19 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B1" s="10"/>
       <c r="E1" s="10" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="10" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="35" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
@@ -5055,31 +5037,31 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="35" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="35" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
@@ -5099,30 +5081,30 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="35" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="36" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
@@ -5142,37 +5124,37 @@
     </row>
     <row r="4" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Q4" s="35"/>
       <c r="R4" s="35"/>
     </row>
     <row r="5" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B5" s="17"/>
       <c r="D5" s="35"/>
       <c r="E5" s="35" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I5" s="35" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="Q5" s="35"/>
       <c r="R5" s="35"/>
@@ -5185,17 +5167,17 @@
     </row>
     <row r="6" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="20" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H6" s="35" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="I6" s="35" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="Q6" s="35"/>
       <c r="R6" s="35"/>
@@ -5209,45 +5191,45 @@
     </row>
     <row r="7" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B7" s="10">
         <v>4000</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D7" s="35"/>
       <c r="H7" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="I7" s="20" t="s">
         <v>231</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>237</v>
       </c>
       <c r="Q7" s="35"/>
       <c r="R7" s="35"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B8" s="35">
         <v>5000</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="10"/>
       <c r="F8" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -5260,7 +5242,7 @@
       <c r="R8" s="13"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
@@ -5273,10 +5255,10 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -5284,7 +5266,7 @@
       <c r="F9" s="20"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -5298,7 +5280,7 @@
       <c r="R9" s="13"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
@@ -5311,7 +5293,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B10" s="10">
         <v>100</v>
@@ -5333,40 +5315,40 @@
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
       <c r="S10" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="T10" s="20" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="U10" s="20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="V10" s="20" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="W10" s="20" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="X10" s="20" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="Y10" s="20" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="Z10" s="20" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AA10" s="20" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="AB10" s="10"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -5383,7 +5365,7 @@
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R11" s="14"/>
       <c r="S11" s="33"/>
@@ -5399,58 +5381,58 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>142</v>
-      </c>
       <c r="E12" s="10" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F12" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="H12" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K12" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q12" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="L12" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="P12" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q12" s="13" t="s">
-        <v>115</v>
-      </c>
       <c r="R12" s="13" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
@@ -5465,76 +5447,76 @@
     </row>
     <row r="13" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>71</v>
-      </c>
       <c r="Q13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R13" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="R13" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="S13" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="U13" s="8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="V13" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="W13" s="8" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="X13" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
@@ -5547,25 +5529,25 @@
         <v>20001</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="I14" s="35" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="J14" s="16">
         <v>0</v>
@@ -5597,7 +5579,7 @@
         <v>초보자 검 입니다</v>
       </c>
       <c r="S14" s="35">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T14" s="4">
         <v>0</v>
@@ -5609,10 +5591,10 @@
         <v>0</v>
       </c>
       <c r="W14" s="13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y14" s="35"/>
       <c r="Z14" s="35"/>
@@ -5625,25 +5607,25 @@
         <v>20002</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="I15" s="35" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="J15" s="16">
         <v>0</v>
@@ -5675,7 +5657,7 @@
         <v>용사의 검 입니다</v>
       </c>
       <c r="S15" s="35">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T15" s="35">
         <v>0</v>
@@ -5687,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="35" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>0</v>
@@ -5699,76 +5681,76 @@
     </row>
     <row r="16" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G16" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="P16" s="8" t="s">
-        <v>71</v>
-      </c>
       <c r="Q16" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R16" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="R16" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="S16" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="U16" s="8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="V16" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:28" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -5776,25 +5758,25 @@
         <v>20101</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H17" s="35" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="I17" s="35" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="J17" s="34">
         <v>0</v>
@@ -5825,7 +5807,7 @@
         <v>초보자 지팡이 입니다</v>
       </c>
       <c r="S17" s="35">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T17" s="35">
         <v>0</v>
@@ -5837,10 +5819,10 @@
         <v>0</v>
       </c>
       <c r="W17" s="35" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="X17" s="35" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:28" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -5848,25 +5830,25 @@
         <v>20102</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="I18" s="35" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="J18" s="34">
         <v>0</v>
@@ -5897,7 +5879,7 @@
         <v>마법사 지팡이 입니다</v>
       </c>
       <c r="S18" s="35">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T18" s="35">
         <v>0</v>
@@ -5909,84 +5891,84 @@
         <v>0</v>
       </c>
       <c r="W18" s="35" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="X18" s="35" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>71</v>
-      </c>
       <c r="Q19" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R19" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="R19" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="S19" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="T19" s="8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="U19" s="8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="V19" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:28" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -5994,25 +5976,25 @@
         <v>20201</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I20" s="35" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="J20" s="34">
         <v>0</v>
@@ -6044,7 +6026,7 @@
         <v>초보자 활 입니다</v>
       </c>
       <c r="S20" s="35">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T20" s="35">
         <v>0</v>
@@ -6056,10 +6038,10 @@
         <v>0</v>
       </c>
       <c r="W20" s="35" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="X20" s="35" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:28" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -6067,25 +6049,25 @@
         <v>20202</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I21" s="35" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="J21" s="34">
         <v>0</v>
@@ -6117,7 +6099,7 @@
         <v>명사수 활 입니다</v>
       </c>
       <c r="S21" s="35">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T21" s="35">
         <v>0</v>
@@ -6129,84 +6111,84 @@
         <v>0</v>
       </c>
       <c r="W21" s="35" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="X21" s="35" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P22" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="O22" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="P22" s="8" t="s">
-        <v>71</v>
-      </c>
       <c r="Q22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R22" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="R22" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="S22" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="T22" s="8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="U22" s="8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="V22" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
@@ -6218,25 +6200,25 @@
         <v>21001</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I23" s="35" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="J23" s="34">
         <v>0</v>
@@ -6280,10 +6262,10 @@
         <v>0</v>
       </c>
       <c r="W23" s="35" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="X23" s="35" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:28" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -6291,25 +6273,25 @@
         <v>21002</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I24" s="35" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="J24" s="34">
         <v>0</v>
@@ -6353,84 +6335,84 @@
         <v>50</v>
       </c>
       <c r="W24" s="35" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="X24" s="35" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H25" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="P25" s="8" t="s">
-        <v>71</v>
-      </c>
       <c r="Q25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R25" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="R25" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="S25" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="T25" s="8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="U25" s="8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="V25" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:28" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -6438,25 +6420,25 @@
         <v>22001</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H26" s="35" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I26" s="35" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="J26" s="34">
         <v>0</v>
@@ -6500,10 +6482,10 @@
         <v>0</v>
       </c>
       <c r="W26" s="35" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="X26" s="35" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:28" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -6511,25 +6493,25 @@
         <v>22002</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H27" s="35" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I27" s="35" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="J27" s="34">
         <v>0</v>
@@ -6573,84 +6555,84 @@
         <v>0</v>
       </c>
       <c r="W27" s="35" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="X27" s="35" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P28" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H28" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="P28" s="8" t="s">
-        <v>71</v>
-      </c>
       <c r="Q28" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R28" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="R28" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="S28" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="T28" s="8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="U28" s="8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="V28" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:28" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -6658,25 +6640,25 @@
         <v>23001</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H29" s="35" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="I29" s="35" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="J29" s="34">
         <v>0</v>
@@ -6720,10 +6702,10 @@
         <v>0</v>
       </c>
       <c r="W29" s="35" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="X29" s="35" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:28" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -6731,25 +6713,25 @@
         <v>23002</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H30" s="35" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="I30" s="35" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="J30" s="34">
         <v>0</v>
@@ -6793,84 +6775,84 @@
         <v>0</v>
       </c>
       <c r="W30" s="35" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="X30" s="35" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G31" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P31" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H31" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="O31" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="P31" s="8" t="s">
-        <v>71</v>
-      </c>
       <c r="Q31" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R31" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="R31" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="S31" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="T31" s="8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="U31" s="8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="V31" s="8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W31" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="X31" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
@@ -6882,25 +6864,25 @@
         <v>300</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I32" s="35" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="J32" s="34">
         <v>0</v>
@@ -6931,8 +6913,8 @@
         <f t="shared" ref="R32:R37" si="6">F32&amp;" 입니다"</f>
         <v>하의1 입니다</v>
       </c>
-      <c r="S32" s="35" t="s">
-        <v>169</v>
+      <c r="S32" s="35">
+        <v>0</v>
       </c>
       <c r="T32" s="35">
         <v>0</v>
@@ -6944,10 +6926,10 @@
         <v>0</v>
       </c>
       <c r="W32" s="35" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="X32" s="35" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -6955,25 +6937,25 @@
         <v>301</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F33" s="34" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I33" s="35" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="J33" s="34">
         <v>0</v>
@@ -7004,11 +6986,11 @@
         <f t="shared" si="6"/>
         <v>하의2 입니다</v>
       </c>
-      <c r="S33" s="35" t="s">
-        <v>8</v>
+      <c r="S33" s="35">
+        <v>0</v>
       </c>
       <c r="T33" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" s="35">
         <v>0</v>
@@ -7017,10 +6999,10 @@
         <v>0</v>
       </c>
       <c r="W33" s="35" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="X33" s="35" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -7028,25 +7010,25 @@
         <v>302</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H34" s="35" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I34" s="35" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="J34" s="34">
         <v>0</v>
@@ -7077,11 +7059,11 @@
         <f t="shared" si="6"/>
         <v>하의3 입니다</v>
       </c>
-      <c r="S34" s="35" t="s">
-        <v>5</v>
+      <c r="S34" s="35">
+        <v>0</v>
       </c>
       <c r="T34" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" s="35">
         <v>0</v>
@@ -7090,10 +7072,10 @@
         <v>0</v>
       </c>
       <c r="W34" s="35" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="X34" s="35" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -7101,25 +7083,25 @@
         <v>303</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H35" s="35" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I35" s="35" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="J35" s="34">
         <v>0</v>
@@ -7150,11 +7132,11 @@
         <f t="shared" si="6"/>
         <v>하의4 입니다</v>
       </c>
-      <c r="S35" s="35" t="s">
-        <v>13</v>
+      <c r="S35" s="35">
+        <v>0</v>
       </c>
       <c r="T35" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" s="35">
         <v>0</v>
@@ -7163,10 +7145,10 @@
         <v>0</v>
       </c>
       <c r="W35" s="35" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="X35" s="35" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -7174,25 +7156,25 @@
         <v>304</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H36" s="35" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I36" s="35" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="J36" s="34">
         <v>0</v>
@@ -7223,11 +7205,11 @@
         <f t="shared" si="6"/>
         <v>하의5 입니다</v>
       </c>
-      <c r="S36" s="35" t="s">
-        <v>10</v>
+      <c r="S36" s="35">
+        <v>0</v>
       </c>
       <c r="T36" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36" s="35">
         <v>0</v>
@@ -7236,10 +7218,10 @@
         <v>0</v>
       </c>
       <c r="W36" s="35" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="X36" s="35" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -7247,25 +7229,25 @@
         <v>305</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F37" s="34" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H37" s="35" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I37" s="35" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="J37" s="34">
         <v>0</v>
@@ -7296,11 +7278,11 @@
         <f t="shared" si="6"/>
         <v>하의6 입니다</v>
       </c>
-      <c r="S37" s="35" t="s">
-        <v>124</v>
+      <c r="S37" s="35">
+        <v>0</v>
       </c>
       <c r="T37" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37" s="35">
         <v>0</v>
@@ -7309,15 +7291,15 @@
         <v>0</v>
       </c>
       <c r="W37" s="35" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="X37" s="35" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -7350,64 +7332,64 @@
     </row>
     <row r="39" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G39" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P39" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H39" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="N39" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="O39" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="P39" s="8" t="s">
-        <v>71</v>
-      </c>
       <c r="Q39" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R39" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="R39" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="S39" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="T39" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="U39" s="8"/>
       <c r="V39" s="8"/>
@@ -7424,25 +7406,25 @@
         <v>10001</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G40" s="39" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H40" s="13">
         <v>0</v>
       </c>
       <c r="I40" s="35" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="J40" s="13">
         <v>0</v>
@@ -7454,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="20" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="N40" s="16">
         <v>50</v>
@@ -7469,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="R40" s="13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="S40" s="34">
         <v>100</v>
@@ -7492,25 +7474,25 @@
         <v>10002</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G41" s="39" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H41" s="13">
         <v>0</v>
       </c>
       <c r="I41" s="35" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="J41" s="13">
         <v>0</v>
@@ -7522,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="20" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="N41" s="16">
         <v>50</v>
@@ -7537,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="R41" s="35" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="S41" s="34">
         <v>0</v>
@@ -7556,7 +7538,7 @@
     </row>
     <row r="42" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -7589,58 +7571,58 @@
     </row>
     <row r="43" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G43" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P43" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H43" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="N43" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="O43" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="P43" s="8" t="s">
-        <v>71</v>
-      </c>
       <c r="Q43" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R43" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="R43" s="8" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -7649,25 +7631,25 @@
         <v>30001</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F44" s="35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G44" s="39" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H44" s="35">
         <v>0</v>
       </c>
       <c r="I44" s="35" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="J44" s="35">
         <v>0</v>
@@ -7679,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="35" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="N44" s="34">
         <v>1</v>
@@ -7694,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="R44" s="35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="S44" s="34"/>
       <c r="T44" s="34"/>
@@ -7705,7 +7687,7 @@
     </row>
     <row r="45" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -7740,64 +7722,64 @@
         <v>4</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E46" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O46" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P46" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q46" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R46" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="S46" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="T46" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="U46" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K46" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="L46" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M46" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="N46" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="O46" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="P46" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q46" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="R46" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="S46" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="T46" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="U46" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="V46" s="8"/>
       <c r="W46" s="8"/>
@@ -7812,25 +7794,25 @@
         <v>40001</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F47" s="35" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H47" s="35">
         <v>0</v>
       </c>
       <c r="I47" s="35" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="J47" s="35">
         <v>0</v>
@@ -7857,13 +7839,13 @@
         <v>1</v>
       </c>
       <c r="R47" s="35" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="S47" s="35">
         <v>10</v>
       </c>
       <c r="T47" s="35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U47" s="35">
         <v>1</v>
@@ -7893,39 +7875,39 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
